--- a/Documentos/apk-398.xlsx
+++ b/Documentos/apk-398.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tablas" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
   <si>
     <t>Mediciones</t>
   </si>
@@ -186,6 +187,195 @@
   </si>
   <si>
     <t>Dif=(DwZref-DwZref_ref)/DwZref_ref*100</t>
+  </si>
+  <si>
+    <t>Tabla 1. Coeficientes de ks para haces pulsados</t>
+  </si>
+  <si>
+    <t>V1_V2</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>Tabla 2. Coeficientes de ks para haces pulsados y barridos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capintec PR-05P mini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capintec PR-05 mini </t>
+  </si>
+  <si>
+    <t>Capintec PR-06C/G Farmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exradin A2 Spokas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exradin T2 Spokas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exradin A 1 mini Shonka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exradin Tl mini Shonka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exradin A 12 Farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Far West Tech. 1C- 18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FZHTK01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuclear Assoc. 30-750 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuclear Assoc. 30-749 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuclear Assoc. 30-744 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuclear Assoc. 30-716 </t>
+  </si>
+  <si>
+    <t>Nuclear Assoc. 30-753 Farmer shortened</t>
+  </si>
+  <si>
+    <t>Nuclear Assoc. 30-751 Farmer</t>
+  </si>
+  <si>
+    <t>Nuclear Assoc. 30-752 Farmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE 2577 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE 2505 Farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE 2505/A Farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE 2505/3, 3A Farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE 2505/3, 3B Farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE2571 Farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE2581 Farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE 2561/2611 Sec. Std </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTW 23323 micro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTW 23331 rigid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTW 23332 rigid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTW 23333 </t>
+  </si>
+  <si>
+    <t>PTW 3000 1/30010 Farmer</t>
+  </si>
+  <si>
+    <t>PTW 30002/300 11 Farmer</t>
+  </si>
+  <si>
+    <t>PTW 30004/30012 Farmer</t>
+  </si>
+  <si>
+    <t>PTW 30006/30013 Farmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTW 31002 flexible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTW 31003 flexible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNC 100730 Farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNC 100740 Farmer </t>
+  </si>
+  <si>
+    <t>Victoreen Radocon III 550</t>
+  </si>
+  <si>
+    <t>Victoreen Radocon II 555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoreen 30-348 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoreen 30-351 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoreen 30-349 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victoreen 30-361 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scdx-Wellhöfer IC 05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scdx-Wellhöfer IC 06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scdx-Wellhöfer IC 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scdx-Wellhöfer IC 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scdx-Wellhöfer IC 25 </t>
+  </si>
+  <si>
+    <t>Scdx-Wellhöfer IC 28 Farmer shortened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scdx-Wellhöfer IC 69 Farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scdx-Wellhöfer IC 70 Farmer </t>
+  </si>
+  <si>
+    <t>Tabla 3. Kqq0 vs TPR20_10</t>
+  </si>
+  <si>
+    <t>TPR 20_10</t>
+  </si>
+  <si>
+    <t>Modelo de cámara</t>
+  </si>
+  <si>
+    <t>Cam (código)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE 2515 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE 2515/3 </t>
   </si>
 </sst>
 </file>
@@ -229,7 +419,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,11 +427,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -254,6 +468,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -594,7 +813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -700,7 +919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -720,12 +939,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
@@ -735,7 +954,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -782,4 +1001,3119 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2.3370000000000002</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-3.6360000000000001</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2.2989999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.474</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-1.587</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.1140000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.198</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-0.875</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-0.54200000000000004</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.022</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-0.36299999999999999</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.34100000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-0.188</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>4.7110000000000003</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-8.2420000000000009</v>
+      </c>
+      <c r="F13" s="5">
+        <v>4.5330000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-3.9769999999999999</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2.2610000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-2.4020000000000001</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1.4039999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1.665</v>
+      </c>
+      <c r="E16" s="5">
+        <v>-1.647</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C17" s="5">
+        <v>4</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.468</v>
+      </c>
+      <c r="E17" s="5">
+        <v>-1.2</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.73399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="E18" s="5">
+        <v>-0.75</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.53</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.62</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.76</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>4</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>5</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>7</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>8</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>10</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>11</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>13</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>14</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>15</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>16</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>17</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>18</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>19</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>20</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>21</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>22</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>23</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>24</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1.006</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>25</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>26</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>27</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1.006</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>28</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>29</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>30</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>31</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>32</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E54" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="O54" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="P54" s="5">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>33</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="5">
+        <v>1.006</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E55" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H55" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N55" s="5">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="P55" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>34</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="5">
+        <v>1.006</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="E56" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="H56" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="N56" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="O56" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P56" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>35</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G57" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H57" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K57" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M57" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O57" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="P57" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>36</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G58" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H58" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O58" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="P58" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>37</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G59" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H59" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O59" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="P59" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>38</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E60" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G60" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H60" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="N60" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="O60" s="5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="P60" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>39</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1.006</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="H61" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="L61" s="5">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="O61" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P61" s="5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>40</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G62" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L62" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O62" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="P62" s="5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>41</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E63" s="5">
+        <v>1</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="G63" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="K63" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="L63" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="M63" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="O63" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="P63" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>42</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E64" s="5">
+        <v>1</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G64" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="H64" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I64" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J64" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K64" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="N64" s="5">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="O64" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>43</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E65" s="5">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G65" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="H65" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I65" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J65" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K65" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="M65" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="N65" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="O65" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>44</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E66" s="5">
+        <v>1</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G66" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="H66" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J66" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K66" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M66" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="N66" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="O66" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="P66" s="5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>45</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="H67" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I67" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J67" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K67" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="N67" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="O67" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="P67" s="5">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>46</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
+        <v>1</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G68" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H68" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I68" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J68" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M68" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N68" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O68" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>47</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+      <c r="E69" s="5">
+        <v>1</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G69" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J69" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K69" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M69" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N69" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O69" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P69" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>48</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5">
+        <v>1</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G70" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K70" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M70" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N70" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O70" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P70" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>49</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I71" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K71" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M71" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N71" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O71" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P71" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>50</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1</v>
+      </c>
+      <c r="E72" s="5">
+        <v>1</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G72" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H72" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I72" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K72" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L72" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M72" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N72" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O72" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P72" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>51</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5">
+        <v>1</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G73" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H73" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I73" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K73" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L73" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M73" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N73" s="5">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="O73" s="5">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="P73" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>52</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E74" s="5">
+        <v>1</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G74" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H74" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I74" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J74" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="K74" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L74" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="M74" s="5">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="N74" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="O74" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="P74" s="5">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>53</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F75" s="5">
+        <v>1</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H75" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I75" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J75" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K75" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L75" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M75" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="N75" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="O75" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="P75" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C21:Q21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documentos/apk-398.xlsx
+++ b/Documentos/apk-398.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Source\Repos\398\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
   <si>
     <t>Mediciones</t>
   </si>
@@ -1007,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,12 +1017,12 @@
     <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>55</v>
       </c>
@@ -1035,8 +1035,26 @@
       <c r="F2" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="5">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="L2" s="5">
+        <v>4</v>
+      </c>
+      <c r="M2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" s="5">
         <v>2</v>
       </c>
@@ -1049,8 +1067,29 @@
       <c r="F3" s="5">
         <v>2.2989999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2.3370000000000002</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.474</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1.198</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1.022</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C4" s="5">
         <v>2.5</v>
       </c>
@@ -1063,8 +1102,29 @@
       <c r="F4" s="5">
         <v>1.1140000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="5">
+        <v>-3.6360000000000001</v>
+      </c>
+      <c r="I4" s="5">
+        <v>-1.587</v>
+      </c>
+      <c r="J4" s="5">
+        <v>-0.875</v>
+      </c>
+      <c r="K4" s="5">
+        <v>-0.54200000000000004</v>
+      </c>
+      <c r="L4" s="5">
+        <v>-0.36299999999999999</v>
+      </c>
+      <c r="M4" s="5">
+        <v>-0.188</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="5">
         <v>3</v>
       </c>
@@ -1077,8 +1137,29 @@
       <c r="F5" s="5">
         <v>0.67700000000000005</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2.2989999999999999</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>3.5</v>
       </c>
@@ -1092,7 +1173,7 @@
         <v>0.46300000000000002</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="5">
         <v>4</v>
       </c>
@@ -1106,7 +1187,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="5">
         <v>5</v>
       </c>
@@ -1120,12 +1201,12 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
         <v>55</v>
       </c>
@@ -1138,8 +1219,26 @@
       <c r="F12" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="L12" s="5">
+        <v>4</v>
+      </c>
+      <c r="M12" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C13" s="5">
         <v>2</v>
       </c>
@@ -1152,8 +1251,29 @@
       <c r="F13" s="5">
         <v>4.5330000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="5">
+        <v>4.7110000000000003</v>
+      </c>
+      <c r="I13" s="5">
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="J13" s="5">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1.665</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1.468</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1.2789999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C14" s="5">
         <v>2.5</v>
       </c>
@@ -1166,8 +1286,29 @@
       <c r="F14" s="5">
         <v>2.2610000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="5">
+        <v>-8.2420000000000009</v>
+      </c>
+      <c r="I14" s="5">
+        <v>-3.9769999999999999</v>
+      </c>
+      <c r="J14" s="5">
+        <v>-2.4020000000000001</v>
+      </c>
+      <c r="K14" s="5">
+        <v>-1.647</v>
+      </c>
+      <c r="L14" s="5">
+        <v>-1.2</v>
+      </c>
+      <c r="M14" s="5">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C15" s="5">
         <v>3</v>
       </c>
@@ -1180,8 +1321,29 @@
       <c r="F15" s="5">
         <v>1.4039999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="5">
+        <v>4.5330000000000004</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2.2610000000000001</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" s="5">
         <v>3.5</v>
       </c>

--- a/Documentos/apk-398.xlsx
+++ b/Documentos/apk-398.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Tablas" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabla398" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="231">
   <si>
     <t>Mediciones</t>
   </si>
@@ -376,6 +377,348 @@
   </si>
   <si>
     <t xml:space="preserve">NE 2515/3 </t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>2,0</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>3,0</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>6,0</t>
+  </si>
+  <si>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>8,0</t>
+  </si>
+  <si>
+    <t>10,0</t>
+  </si>
+  <si>
+    <t>13,0</t>
+  </si>
+  <si>
+    <t>16,0</t>
+  </si>
+  <si>
+    <t>20,0</t>
+  </si>
+  <si>
+    <t>Attix</t>
+  </si>
+  <si>
+    <t>Capintec</t>
+  </si>
+  <si>
+    <t>PS-033</t>
+  </si>
+  <si>
+    <t>Exradin</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>Markus</t>
+  </si>
+  <si>
+    <t>Roos</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Capintec PS-033</t>
+  </si>
+  <si>
+    <t>Exradin P11</t>
+  </si>
+  <si>
+    <t>Holt (Memorial)</t>
+  </si>
+  <si>
+    <t>NACP/Calcam</t>
+  </si>
+  <si>
+    <t>Capintec PR06C (Farmer)</t>
+  </si>
+  <si>
+    <t>Exradin A2 (Spokas)</t>
+  </si>
+  <si>
+    <t>Exradin T2 (Spokas)</t>
+  </si>
+  <si>
+    <t>Exradin A12 (Farmer)</t>
+  </si>
+  <si>
+    <t>NE 2571 (Guarded Farmer)</t>
+  </si>
+  <si>
+    <t>PTW 30001/30010 (Farmer)</t>
+  </si>
+  <si>
+    <t>PTW 30002/30011 (Farmer)</t>
+  </si>
+  <si>
+    <t>PTW 30004/30012 (Farmer)</t>
+  </si>
+  <si>
+    <t>PTW</t>
+  </si>
+  <si>
+    <t>31002/31003 (flexible)</t>
+  </si>
+  <si>
+    <t>Victoreen 30-348</t>
+  </si>
+  <si>
+    <t>Victoreen 30-351</t>
+  </si>
+  <si>
+    <t>Victoreen 30-349</t>
+  </si>
+  <si>
+    <t>Attix RMI 449</t>
+  </si>
+  <si>
+    <t>NE 2581 (Robust Farmer)</t>
+  </si>
+  <si>
+    <t>PTW 31002/31003 (flexible)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR-05P mini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR-05 mini </t>
+  </si>
+  <si>
+    <t>PR-06C/G Farmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2 Spokas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2 Spokas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 1 mini Shonka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tl mini Shonka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 12 Farmer </t>
+  </si>
+  <si>
+    <t>Far West Tech.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1C- 18 </t>
+  </si>
+  <si>
+    <t>FZHTK01</t>
+  </si>
+  <si>
+    <t>Nuclear Assoc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-750 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-749 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-744 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-716 </t>
+  </si>
+  <si>
+    <t>30-753 Farmer shortened</t>
+  </si>
+  <si>
+    <t>30-751 Farmer</t>
+  </si>
+  <si>
+    <t>30-752 Farmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2515/3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2505 Farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2505/A Farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2505/3, 3A Farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2505/3, 3B Farmer </t>
+  </si>
+  <si>
+    <t>NE2571</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmer </t>
+  </si>
+  <si>
+    <t>NE2581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2561/2611 Sec. Std </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23323 micro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23331 rigid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23332 rigid </t>
+  </si>
+  <si>
+    <t>30001/30010 Farmer</t>
+  </si>
+  <si>
+    <t>30002/30011 Farmer</t>
+  </si>
+  <si>
+    <t>30004/30012 Farmer</t>
+  </si>
+  <si>
+    <t>30006/30013 Farmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31002 flexible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31003 flexible </t>
+  </si>
+  <si>
+    <t>SNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100730 Farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100740 Farmer </t>
+  </si>
+  <si>
+    <t>Victoreen</t>
+  </si>
+  <si>
+    <t>Radocon III 550</t>
+  </si>
+  <si>
+    <t>Radocon II 555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-348 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-351 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-349 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-361 </t>
+  </si>
+  <si>
+    <t>Scdx-Wellhöfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC 05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC 06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC 15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC 25 </t>
+  </si>
+  <si>
+    <t>IC 28 Farmer shortened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC 69 Farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC 70 Farmer </t>
+  </si>
+  <si>
+    <t>RMI 449</t>
+  </si>
+  <si>
+    <t>PR06C (Farmer)</t>
+  </si>
+  <si>
+    <t>A2 (Spokas)</t>
+  </si>
+  <si>
+    <t>T2 (Spokas)</t>
+  </si>
+  <si>
+    <t>A12 (Farmer)</t>
+  </si>
+  <si>
+    <t>2571 (Guarded Farmer)</t>
+  </si>
+  <si>
+    <t>2581 (Robust Farmer)</t>
+  </si>
+  <si>
+    <t>30001/30010 (Farmer)</t>
+  </si>
+  <si>
+    <t>30002/30011 (Farmer)</t>
+  </si>
+  <si>
+    <t>30004/30012 (Farmer)</t>
+  </si>
+  <si>
+    <t>30-348</t>
+  </si>
+  <si>
+    <t>30-351</t>
+  </si>
+  <si>
+    <t>30-349</t>
   </si>
 </sst>
 </file>
@@ -757,7 +1100,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3688,7 +4031,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>43</v>
       </c>
@@ -3741,7 +4084,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>44</v>
       </c>
@@ -3794,7 +4137,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>45</v>
       </c>
@@ -3847,7 +4190,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>46</v>
       </c>
@@ -3900,7 +4243,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>47</v>
       </c>
@@ -3953,7 +4296,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>48</v>
       </c>
@@ -4006,7 +4349,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>49</v>
       </c>
@@ -4059,7 +4402,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>50</v>
       </c>
@@ -4112,7 +4455,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>51</v>
       </c>
@@ -4165,7 +4508,7 @@
         <v>0.94299999999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>52</v>
       </c>
@@ -4218,7 +4561,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>53</v>
       </c>
@@ -4269,6 +4612,1016 @@
       </c>
       <c r="Q75" s="5">
         <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B79" s="5"/>
+      <c r="C79" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="R79" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B80" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="H80" s="5">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="I80" s="5">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="J80" s="5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="K80" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="L80" s="5">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="M80" s="5">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="N80" s="5">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="O80" s="5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="P80" s="5">
+        <v>0.871</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="R80" s="5">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="S80" s="5">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B81" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="H81" s="5">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I81" s="5">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="J81" s="5">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="K81" s="5">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="L81" s="5">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="M81" s="5">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="N81" s="5">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="O81" s="5">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="P81" s="5">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="Q81" s="5">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="R81" s="5">
+        <v>0.877</v>
+      </c>
+      <c r="S81" s="5">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B82" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="5">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="D82" s="5">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="E82" s="5">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H82" s="5">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I82" s="5">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="J82" s="5">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="K82" s="5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="L82" s="5">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="M82" s="5">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="N82" s="5">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="O82" s="5">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="P82" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="Q82" s="5">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="R82" s="5">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="S82" s="5">
+        <v>0.84099999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B83" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="D83" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="E83" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H83" s="5">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I83" s="5">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J83" s="5">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="K83" s="5">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="L83" s="5">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="M83" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="N83" s="5">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="O83" s="5">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="P83" s="5">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="Q83" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="R83" s="5">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="S83" s="5">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D84" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="F84" s="5">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G84" s="5">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="H84" s="5">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I84" s="5">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="J84" s="5">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="K84" s="5">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="L84" s="5">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="M84" s="5">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="N84" s="5">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="O84" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="P84" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="Q84" s="5">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="R84" s="5">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="S84" s="5">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H85" s="5">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="I85" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="J85" s="5">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="K85" s="5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="L85" s="5">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="M85" s="5">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="N85" s="5">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="O85" s="5">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="P85" s="5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="Q85" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="R85" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="S85" s="5">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B86" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C86" s="5">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D86" s="5">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E86" s="5">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="F86" s="5">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="G86" s="5">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="H86" s="5">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I86" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="J86" s="5">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="K86" s="5">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="L86" s="5">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="M86" s="5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N86" s="5">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="O86" s="5">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="P86" s="5">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="Q86" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="R86" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="S86" s="5">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B87" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J87" s="5">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="K87" s="5">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="L87" s="5">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="M87" s="5">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="N87" s="5">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="O87" s="5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="P87" s="5">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="Q87" s="5">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="R87" s="5">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="S87" s="5">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B88" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="J88" s="5">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="K88" s="5">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="L88" s="5">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="M88" s="5">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="N88" s="5">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="O88" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="P88" s="5">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="Q88" s="5">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="R88" s="5">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="S88" s="5">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B89" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="K89" s="5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="L89" s="5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="M89" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="N89" s="5">
+        <v>0.879</v>
+      </c>
+      <c r="O89" s="5">
+        <v>0.878</v>
+      </c>
+      <c r="P89" s="5">
+        <v>0.876</v>
+      </c>
+      <c r="Q89" s="5">
+        <v>0.871</v>
+      </c>
+      <c r="R89" s="5">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="S89" s="5">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="J90" s="5">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="K90" s="5">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="L90" s="5">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="M90" s="5">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="N90" s="5">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="O90" s="5">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="P90" s="5">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="Q90" s="5">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="R90" s="5">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="S90" s="5">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B91" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="J91" s="5">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="K91" s="5">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="L91" s="5">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="M91" s="5">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="N91" s="5">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="O91" s="5">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="P91" s="5">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="Q91" s="5">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="R91" s="5">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="S91" s="5">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B92" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="J92" s="5">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K92" s="5">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="L92" s="5">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="M92" s="5">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="N92" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="O92" s="5">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="P92" s="5">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="Q92" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="R92" s="5">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="S92" s="5">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B93" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="J93" s="5">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="K93" s="5">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="L93" s="5">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="M93" s="5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N93" s="5">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="O93" s="5">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="P93" s="5">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="Q93" s="5">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="R93" s="5">
+        <v>0.877</v>
+      </c>
+      <c r="S93" s="5">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B94" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J94" s="5">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="K94" s="5">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="L94" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="M94" s="5">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="N94" s="5">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="O94" s="5">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="P94" s="5">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="Q94" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="R94" s="5">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="S94" s="5">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B95" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="J95" s="5">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K95" s="5">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="L95" s="5">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="M95" s="5">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="N95" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="O95" s="5">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="P95" s="5">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="Q95" s="5">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="R95" s="5">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="S95" s="5">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="J96" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="K96" s="5">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="L96" s="5">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="M96" s="5">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="N96" s="5">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="O96" s="5">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="P96" s="5">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="Q96" s="5">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="R96" s="5">
+        <v>0.877</v>
+      </c>
+      <c r="S96" s="5">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="J97" s="5">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="K97" s="5">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="L97" s="5">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="M97" s="5">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="N97" s="5">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="O97" s="5">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="P97" s="5">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="Q97" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="R97" s="5">
+        <v>0.872</v>
+      </c>
+      <c r="S97" s="5">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="J98" s="5">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="K98" s="5">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="L98" s="5">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="M98" s="5">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="N98" s="5">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="O98" s="5">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="P98" s="5">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="Q98" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="R98" s="5">
+        <v>0.873</v>
+      </c>
+      <c r="S98" s="5">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="J99" s="5">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K99" s="5">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="L99" s="5">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="M99" s="5">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="N99" s="5">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="O99" s="5">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="P99" s="5">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="Q99" s="5">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="R99" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="S99" s="5">
+        <v>0.86599999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4278,4 +5631,3758 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:S74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D1" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E1" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F1" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G1" s="5">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="I1" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="J1" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="K1" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L1" s="5">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="M1" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="N1" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O1" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="P1" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="Q1">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="P2" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="Q2">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q3">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="Q4">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="Q5">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="Q6">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="M7" s="5">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="N7" s="5">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="Q7">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="L8" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="O8" s="5">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="Q8">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="Q9">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N10" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="Q10">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="Q11">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J12" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q12">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J13" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N13" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q13">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q14">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q15">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="M16" s="5">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="O16" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="Q16">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="N17" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="Q17">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2515</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M18" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N18" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="Q18">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="Q19">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2577</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M20" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O20" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P20" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="Q20">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I21" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L21" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M21" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N21" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="O21" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="P21" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="Q21">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="Q22">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="I23" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M23" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="N23" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O23" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="Q23">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1.006</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="N24" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="O24" s="5">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="Q24">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="I25" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M25" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="N25" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O25" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P25" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="Q25">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="M26" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="N26" s="5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="O26" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="Q26">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1.006</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O27" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="Q27">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H28" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I28" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M28" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N28" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="O28" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="Q28">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="N29" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="O29" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P29" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q29">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G30" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H30" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I30" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M30" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="N30" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O30" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="Q30">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="5">
+        <v>23333</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D31" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I31" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="Q31">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D32" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E32" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H32" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I32" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L32" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="M32" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="Q32">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1.006</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H33" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I33" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="L33" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M33" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N33" s="5">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="O33" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="P33" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="Q33">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1.006</v>
+      </c>
+      <c r="D34" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="H34" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I34" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L34" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="M34" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="N34" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="O34" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="P34" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="Q34">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="D35" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H35" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J35" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K35" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L35" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N35" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O35" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="P35" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="Q35">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C36" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D36" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G36" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H36" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I36" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K36" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N36" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O36" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="P36" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="Q36">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G37" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J37" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K37" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N37" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O37" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="P37" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="Q37">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C38" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E38" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G38" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H38" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I38" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="K38" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="N38" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="O38" s="5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="P38" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q38">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1.006</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="Q39">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J40" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K40" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="Q40">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="5">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E41" s="5">
+        <v>1</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="G41" s="5">
+        <v>0.995</v>
+      </c>
+      <c r="H41" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="J41" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="K41" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="L41" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="N41" s="5">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="O41" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="P41" s="5">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="Q41">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="H42" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="N42" s="5">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="O42" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="P42" s="5">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="Q42">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I43" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="N43" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="O43" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="P43" s="5">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="Q43">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G44" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I44" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J44" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K44" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="N44" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="O44" s="5">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="P44" s="5">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="Q44">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="G45" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="H45" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I45" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="K45" s="5">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="N45" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="O45" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="P45" s="5">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="Q45">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <v>1</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G46" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H46" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I46" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J46" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K46" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N46" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O46" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P46" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q46">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G47" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H47" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I47" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J47" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K47" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N47" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O47" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P47" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q47">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>1</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G48" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H48" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I48" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J48" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K48" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N48" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O48" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P48" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q48">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
+        <v>1</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G49" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H49" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I49" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J49" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K49" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N49" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O49" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P49" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q49">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
+        <v>1</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G50" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I50" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J50" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K50" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L50" s="5">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N50" s="5">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="O50" s="5">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="P50" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q50">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="5">
+        <v>1</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G51" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H51" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J51" s="5">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="K51" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="L51" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="N51" s="5">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="O51" s="5">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="P51" s="5">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="Q51">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1.002</v>
+      </c>
+      <c r="E52" s="5">
+        <v>1</v>
+      </c>
+      <c r="F52" s="5">
+        <v>0.999</v>
+      </c>
+      <c r="G52" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="H52" s="5">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="K52" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="O52" s="5">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="P52" s="5">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="Q52">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1.004</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5">
+        <v>0.998</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0.996</v>
+      </c>
+      <c r="I53" s="5">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J53" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="K53" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="N53" s="5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="O53" s="5">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="P53" s="5">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="Q53">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="D55">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="E55">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="F55">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G55">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="H55">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="I55">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="J55">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="K55">
+        <v>0.9</v>
+      </c>
+      <c r="L55">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="M55">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="N55">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="O55">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="P55">
+        <v>0.871</v>
+      </c>
+      <c r="Q55">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="R55">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="S55">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="F56">
+        <v>0.92</v>
+      </c>
+      <c r="G56">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="H56">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I56">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="J56">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="K56">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="L56">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="M56">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="N56">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="O56">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="P56">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="Q56">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="R56">
+        <v>0.877</v>
+      </c>
+      <c r="S56">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="D57">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="E57">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="F57">
+        <v>0.93</v>
+      </c>
+      <c r="G57">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H57">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="I57">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="J57">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="K57">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="L57">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="M57">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="N57">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="O57">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="P57">
+        <v>0.875</v>
+      </c>
+      <c r="Q57">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="R57">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="S57">
+        <v>0.84099999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="D58">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="E58">
+        <v>0.95</v>
+      </c>
+      <c r="F58">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="G58">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H58">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I58">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="J58">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="K58">
+        <v>0.91700000000000004</v>
+      </c>
+      <c r="L58">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="M58">
+        <v>0.91</v>
+      </c>
+      <c r="N58">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="O58">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="P58">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="Q58">
+        <v>0.875</v>
+      </c>
+      <c r="R58">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="S58">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="D59">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="E59">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="F59">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G59">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="H59">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I59">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="J59">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="K59">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="L59">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="M59">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="N59">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="O59">
+        <v>0.88</v>
+      </c>
+      <c r="P59">
+        <v>0.87</v>
+      </c>
+      <c r="Q59">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="R59">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="S59">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="F60">
+        <v>0.92</v>
+      </c>
+      <c r="G60">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="H60">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="I60">
+        <v>0.91</v>
+      </c>
+      <c r="J60">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="K60">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="L60">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="M60">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="N60">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="O60">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="P60">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="Q60">
+        <v>0.87</v>
+      </c>
+      <c r="R60">
+        <v>0.86</v>
+      </c>
+      <c r="S60">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D61">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="E61">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="F61">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="G61">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="H61">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I61">
+        <v>0.92</v>
+      </c>
+      <c r="J61">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="K61">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="L61">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="M61">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N61">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="O61">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="P61">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="Q61">
+        <v>0.87</v>
+      </c>
+      <c r="R61">
+        <v>0.86</v>
+      </c>
+      <c r="S61">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" t="s">
+        <v>219</v>
+      </c>
+      <c r="I62">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J62">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="K62">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="L62">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="M62">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="N62">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="O62">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="P62">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="Q62">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="R62">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="S62">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" t="s">
+        <v>220</v>
+      </c>
+      <c r="I63">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="J63">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="K63">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="L63">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="M63">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="N63">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="O63">
+        <v>0.91</v>
+      </c>
+      <c r="P63">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="Q63">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="R63">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="S63">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" t="s">
+        <v>221</v>
+      </c>
+      <c r="I64">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="J64">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="K64">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="L64">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="M64">
+        <v>0.88</v>
+      </c>
+      <c r="N64">
+        <v>0.879</v>
+      </c>
+      <c r="O64">
+        <v>0.878</v>
+      </c>
+      <c r="P64">
+        <v>0.876</v>
+      </c>
+      <c r="Q64">
+        <v>0.871</v>
+      </c>
+      <c r="R64">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="S64">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" t="s">
+        <v>222</v>
+      </c>
+      <c r="I65">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="J65">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="K65">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="L65">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="M65">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="N65">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="O65">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="P65">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="Q65">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="R65">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="S65">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" t="s">
+        <v>223</v>
+      </c>
+      <c r="I66">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="J66">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="K66">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="L66">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="M66">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="N66">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="O66">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="P66">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="Q66">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="R66">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="S66">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" t="s">
+        <v>224</v>
+      </c>
+      <c r="I67">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="J67">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K67">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="L67">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="M67">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="N67">
+        <v>0.89</v>
+      </c>
+      <c r="O67">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="P67">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="Q67">
+        <v>0.875</v>
+      </c>
+      <c r="R67">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="S67">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" t="s">
+        <v>225</v>
+      </c>
+      <c r="I68">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="J68">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="K68">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="L68">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="M68">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N68">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="O68">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="P68">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="Q68">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="R68">
+        <v>0.877</v>
+      </c>
+      <c r="S68">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" t="s">
+        <v>226</v>
+      </c>
+      <c r="I69">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J69">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="K69">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="L69">
+        <v>0.91</v>
+      </c>
+      <c r="M69">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="N69">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="O69">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="P69">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="Q69">
+        <v>0.89</v>
+      </c>
+      <c r="R69">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="S69">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" t="s">
+        <v>227</v>
+      </c>
+      <c r="I70">
+        <v>0.92</v>
+      </c>
+      <c r="J70">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="K70">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="L70">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="M70">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="N70">
+        <v>0.91</v>
+      </c>
+      <c r="O70">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="P70">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="Q70">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="R70">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="S70">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>155</v>
+      </c>
+      <c r="I71">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="J71">
+        <v>0.91</v>
+      </c>
+      <c r="K71">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="L71">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="M71">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="N71">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="O71">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="P71">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="Q71">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="R71">
+        <v>0.877</v>
+      </c>
+      <c r="S71">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>202</v>
+      </c>
+      <c r="B72" t="s">
+        <v>228</v>
+      </c>
+      <c r="I72">
+        <v>0.91</v>
+      </c>
+      <c r="J72">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="K72">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="L72">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="M72">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="N72">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="O72">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="P72">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="Q72">
+        <v>0.88</v>
+      </c>
+      <c r="R72">
+        <v>0.872</v>
+      </c>
+      <c r="S72">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" t="s">
+        <v>229</v>
+      </c>
+      <c r="I73">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="J73">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="K73">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="L73">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="M73">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="N73">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="O73">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="P73">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="Q73">
+        <v>0.88</v>
+      </c>
+      <c r="R73">
+        <v>0.873</v>
+      </c>
+      <c r="S73">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>202</v>
+      </c>
+      <c r="B74" t="s">
+        <v>230</v>
+      </c>
+      <c r="I74">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="J74">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K74">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="L74">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="M74">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="N74">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="O74">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="P74">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="Q74">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="R74">
+        <v>0.875</v>
+      </c>
+      <c r="S74">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentos/apk-398.xlsx
+++ b/Documentos/apk-398.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="217">
   <si>
     <t>Mediciones</t>
   </si>
@@ -493,9 +493,6 @@
     <t>PTW</t>
   </si>
   <si>
-    <t>31002/31003 (flexible)</t>
-  </si>
-  <si>
     <t>Victoreen 30-348</t>
   </si>
   <si>
@@ -586,15 +583,6 @@
     <t xml:space="preserve">2505/3, 3B Farmer </t>
   </si>
   <si>
-    <t>NE2571</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farmer </t>
-  </si>
-  <si>
-    <t>NE2581</t>
-  </si>
-  <si>
     <t xml:space="preserve">2561/2611 Sec. Std </t>
   </si>
   <si>
@@ -685,40 +673,10 @@
     <t>RMI 449</t>
   </si>
   <si>
-    <t>PR06C (Farmer)</t>
-  </si>
-  <si>
-    <t>A2 (Spokas)</t>
-  </si>
-  <si>
-    <t>T2 (Spokas)</t>
-  </si>
-  <si>
-    <t>A12 (Farmer)</t>
-  </si>
-  <si>
-    <t>2571 (Guarded Farmer)</t>
-  </si>
-  <si>
-    <t>2581 (Robust Farmer)</t>
-  </si>
-  <si>
-    <t>30001/30010 (Farmer)</t>
-  </si>
-  <si>
-    <t>30002/30011 (Farmer)</t>
-  </si>
-  <si>
-    <t>30004/30012 (Farmer)</t>
-  </si>
-  <si>
-    <t>30-348</t>
-  </si>
-  <si>
-    <t>30-351</t>
-  </si>
-  <si>
-    <t>30-349</t>
+    <t xml:space="preserve">2571 Farmer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2581 Farmer </t>
   </si>
 </sst>
 </file>
@@ -4670,7 +4628,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" s="5">
         <v>0.95299999999999996</v>
@@ -5274,7 +5232,7 @@
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -5450,7 +5408,7 @@
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -5494,7 +5452,7 @@
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -5538,7 +5496,7 @@
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -5582,7 +5540,7 @@
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -5635,10 +5593,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:S74"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5652,7 +5610,7 @@
         <v>135</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1" s="5">
         <v>1.004</v>
@@ -5705,7 +5663,7 @@
         <v>135</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="5">
         <v>1.004</v>
@@ -5758,7 +5716,7 @@
         <v>135</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="5">
         <v>1.0009999999999999</v>
@@ -5811,7 +5769,7 @@
         <v>137</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="5">
         <v>1.0009999999999999</v>
@@ -5864,7 +5822,7 @@
         <v>137</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="5">
         <v>1.002</v>
@@ -5917,7 +5875,7 @@
         <v>137</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="5">
         <v>1.002</v>
@@ -5970,7 +5928,7 @@
         <v>137</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="5">
         <v>1.0029999999999999</v>
@@ -6023,7 +5981,7 @@
         <v>137</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C8" s="5">
         <v>1.0009999999999999</v>
@@ -6073,10 +6031,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="C9" s="5">
         <v>1.0049999999999999</v>
@@ -6126,7 +6084,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5">
@@ -6177,10 +6135,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="C11" s="5">
         <v>1.0009999999999999</v>
@@ -6230,10 +6188,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="5">
         <v>1.0009999999999999</v>
@@ -6283,10 +6241,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="5">
         <v>1.0009999999999999</v>
@@ -6336,10 +6294,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="5">
         <v>1.0009999999999999</v>
@@ -6389,10 +6347,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C15" s="5">
         <v>1.0009999999999999</v>
@@ -6442,10 +6400,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="5">
         <v>1.002</v>
@@ -6495,10 +6453,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C17" s="5">
         <v>1.004</v>
@@ -6604,7 +6562,7 @@
         <v>141</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="5">
         <v>1.0049999999999999</v>
@@ -6710,7 +6668,7 @@
         <v>141</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="5">
         <v>1.0009999999999999</v>
@@ -6763,7 +6721,7 @@
         <v>141</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="5">
         <v>1.0049999999999999</v>
@@ -6816,7 +6774,7 @@
         <v>141</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C23" s="5">
         <v>1.0049999999999999</v>
@@ -6869,7 +6827,7 @@
         <v>141</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="5">
         <v>1.006</v>
@@ -6919,10 +6877,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="C25" s="5">
         <v>1.0049999999999999</v>
@@ -6972,10 +6930,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="C26" s="5">
         <v>1.0049999999999999</v>
@@ -7028,7 +6986,7 @@
         <v>141</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C27" s="5">
         <v>1.006</v>
@@ -7081,7 +7039,7 @@
         <v>154</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C28" s="5">
         <v>1.0029999999999999</v>
@@ -7134,7 +7092,7 @@
         <v>154</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C29" s="5">
         <v>1.004</v>
@@ -7187,7 +7145,7 @@
         <v>154</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C30" s="5">
         <v>1.004</v>
@@ -7293,7 +7251,7 @@
         <v>154</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C32" s="5">
         <v>1.004</v>
@@ -7346,7 +7304,7 @@
         <v>154</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C33" s="5">
         <v>1.006</v>
@@ -7399,7 +7357,7 @@
         <v>154</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C34" s="5">
         <v>1.006</v>
@@ -7452,7 +7410,7 @@
         <v>154</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C35" s="5">
         <v>1.002</v>
@@ -7505,7 +7463,7 @@
         <v>154</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C36" s="5">
         <v>1.0029999999999999</v>
@@ -7558,7 +7516,7 @@
         <v>154</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C37" s="5">
         <v>1.0029999999999999</v>
@@ -7608,10 +7566,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C38" s="5">
         <v>1.004</v>
@@ -7661,10 +7619,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C39" s="5">
         <v>1.006</v>
@@ -7714,10 +7672,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C40" s="5">
         <v>1.0049999999999999</v>
@@ -7767,10 +7725,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C41" s="5">
         <v>1.0049999999999999</v>
@@ -7820,10 +7778,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C42" s="5">
         <v>1.004</v>
@@ -7873,10 +7831,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="C43" s="5">
         <v>1.004</v>
@@ -7926,10 +7884,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C44" s="5">
         <v>1.0029999999999999</v>
@@ -7979,10 +7937,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C45" s="5">
         <v>1.004</v>
@@ -8032,10 +7990,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C46" s="5">
         <v>1.0009999999999999</v>
@@ -8085,10 +8043,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C47" s="5">
         <v>1.0009999999999999</v>
@@ -8138,10 +8096,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C48" s="5">
         <v>1.0009999999999999</v>
@@ -8191,10 +8149,10 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="C49" s="5">
         <v>1.0009999999999999</v>
@@ -8244,10 +8202,10 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C50" s="5">
         <v>1.0009999999999999</v>
@@ -8297,10 +8255,10 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C51" s="5">
         <v>1.0009999999999999</v>
@@ -8350,10 +8308,10 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C52" s="5">
         <v>1.002</v>
@@ -8403,10 +8361,10 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C53" s="5">
         <v>1.004</v>
@@ -8459,7 +8417,7 @@
         <v>134</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C55">
         <v>0.95299999999999996</v>
@@ -8850,11 +8808,11 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B62" t="s">
-        <v>219</v>
+      <c r="B62" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="I62">
         <v>0.91600000000000004</v>
@@ -8891,11 +8849,11 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B63" t="s">
-        <v>220</v>
+      <c r="B63" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="I63">
         <v>0.91400000000000003</v>
@@ -8932,11 +8890,11 @@
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B64" t="s">
-        <v>221</v>
+      <c r="B64" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="I64">
         <v>0.88200000000000001</v>
@@ -8973,11 +8931,11 @@
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B65" t="s">
-        <v>222</v>
+      <c r="B65" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="I65">
         <v>0.92100000000000004</v>
@@ -9014,11 +8972,11 @@
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B66" t="s">
-        <v>223</v>
+      <c r="B66" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="I66">
         <v>0.91800000000000004</v>
@@ -9055,11 +9013,11 @@
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="A67" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B67" t="s">
-        <v>224</v>
+      <c r="B67" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="I67">
         <v>0.89900000000000002</v>
@@ -9096,11 +9054,11 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B68" t="s">
-        <v>225</v>
+      <c r="B68" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="I68">
         <v>0.91100000000000003</v>
@@ -9137,11 +9095,11 @@
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B69" t="s">
-        <v>226</v>
+      <c r="B69" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="I69">
         <v>0.91600000000000004</v>
@@ -9178,11 +9136,11 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="A70" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B70" t="s">
-        <v>227</v>
+      <c r="B70" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="I70">
         <v>0.92</v>
@@ -9219,11 +9177,11 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B71" t="s">
-        <v>155</v>
+      <c r="B71" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="I71">
         <v>0.91200000000000003</v>
@@ -9260,73 +9218,73 @@
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>202</v>
-      </c>
-      <c r="B72" t="s">
-        <v>228</v>
+      <c r="A72" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="I72">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="J72">
         <v>0.91</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>0.90800000000000003</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>0.90600000000000003</v>
       </c>
-      <c r="L72">
+      <c r="M72">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="N72">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="O72">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="P72">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="Q72">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="R72">
+        <v>0.877</v>
+      </c>
+      <c r="S72">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I73">
+        <v>0.91</v>
+      </c>
+      <c r="J73">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="K73">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="L73">
         <v>0.90300000000000002</v>
       </c>
-      <c r="M72">
+      <c r="M73">
         <v>0.90200000000000002</v>
       </c>
-      <c r="N72">
+      <c r="N73">
         <v>0.89800000000000002</v>
       </c>
-      <c r="O72">
+      <c r="O73">
         <v>0.89500000000000002</v>
-      </c>
-      <c r="P72">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="Q72">
-        <v>0.88</v>
-      </c>
-      <c r="R72">
-        <v>0.872</v>
-      </c>
-      <c r="S72">
-        <v>0.86199999999999999</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>202</v>
-      </c>
-      <c r="B73" t="s">
-        <v>229</v>
-      </c>
-      <c r="I73">
-        <v>0.90600000000000003</v>
-      </c>
-      <c r="J73">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="K73">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="L73">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="M73">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="N73">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="O73">
-        <v>0.89300000000000002</v>
       </c>
       <c r="P73">
         <v>0.88800000000000001</v>
@@ -9335,54 +9293,96 @@
         <v>0.88</v>
       </c>
       <c r="R73">
-        <v>0.873</v>
+        <v>0.872</v>
       </c>
       <c r="S73">
-        <v>0.86399999999999999</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B74" t="s">
-        <v>230</v>
-      </c>
       <c r="I74">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="J74">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="K74">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="L74">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="M74">
         <v>0.89900000000000002</v>
       </c>
-      <c r="J74">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="K74">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="L74">
+      <c r="N74">
         <v>0.89600000000000002</v>
       </c>
-      <c r="M74">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="N74">
+      <c r="O74">
         <v>0.89300000000000002</v>
-      </c>
-      <c r="O74">
-        <v>0.89100000000000001</v>
       </c>
       <c r="P74">
         <v>0.88800000000000001</v>
       </c>
       <c r="Q74">
+        <v>0.88</v>
+      </c>
+      <c r="R74">
+        <v>0.873</v>
+      </c>
+      <c r="S74">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I75">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="J75">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K75">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="L75">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="M75">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="N75">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="O75">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="P75">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="Q75">
         <v>0.88100000000000001</v>
       </c>
-      <c r="R74">
+      <c r="R75">
         <v>0.875</v>
       </c>
-      <c r="S74">
+      <c r="S75">
         <v>0.86599999999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentos/apk-398.xlsx
+++ b/Documentos/apk-398.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="200">
   <si>
     <t>Mediciones</t>
   </si>
@@ -377,57 +377,6 @@
   </si>
   <si>
     <t xml:space="preserve">NE 2515/3 </t>
-  </si>
-  <si>
-    <t>1,0</t>
-  </si>
-  <si>
-    <t>1,4</t>
-  </si>
-  <si>
-    <t>2,0</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>3,0</t>
-  </si>
-  <si>
-    <t>3,5</t>
-  </si>
-  <si>
-    <t>4,0</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>5,0</t>
-  </si>
-  <si>
-    <t>5,5</t>
-  </si>
-  <si>
-    <t>6,0</t>
-  </si>
-  <si>
-    <t>7,0</t>
-  </si>
-  <si>
-    <t>8,0</t>
-  </si>
-  <si>
-    <t>10,0</t>
-  </si>
-  <si>
-    <t>13,0</t>
-  </si>
-  <si>
-    <t>16,0</t>
-  </si>
-  <si>
-    <t>20,0</t>
   </si>
   <si>
     <t>Attix</t>
@@ -1308,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79:S79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4574,61 +4523,61 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
-      <c r="C79" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J79" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="K79" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="L79" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="M79" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="N79" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="O79" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="P79" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q79" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="R79" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="S79" s="5" t="s">
-        <v>133</v>
+      <c r="C79" s="5">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="E79" s="5">
+        <v>2</v>
+      </c>
+      <c r="F79" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G79" s="5">
+        <v>3</v>
+      </c>
+      <c r="H79" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="I79" s="5">
+        <v>4</v>
+      </c>
+      <c r="J79" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="K79" s="5">
+        <v>5</v>
+      </c>
+      <c r="L79" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="M79" s="5">
+        <v>6</v>
+      </c>
+      <c r="N79" s="5">
+        <v>7</v>
+      </c>
+      <c r="O79" s="5">
+        <v>8</v>
+      </c>
+      <c r="P79" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>13</v>
+      </c>
+      <c r="R79" s="5">
+        <v>16</v>
+      </c>
+      <c r="S79" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B80" s="5" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C80" s="5">
         <v>0.95299999999999996</v>
@@ -4684,7 +4633,7 @@
     </row>
     <row r="81" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B81" s="5" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -4736,7 +4685,7 @@
     </row>
     <row r="82" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C82" s="5">
         <v>0.95799999999999996</v>
@@ -4792,7 +4741,7 @@
     </row>
     <row r="83" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B83" s="5" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C83" s="5">
         <v>0.97099999999999997</v>
@@ -4848,7 +4797,7 @@
     </row>
     <row r="84" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B84" s="5" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C84" s="5">
         <v>0.95199999999999996</v>
@@ -4904,7 +4853,7 @@
     </row>
     <row r="85" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B85" s="5" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -4956,7 +4905,7 @@
     </row>
     <row r="86" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B86" s="5" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C86" s="5">
         <v>0.96499999999999997</v>
@@ -5012,7 +4961,7 @@
     </row>
     <row r="87" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B87" s="5" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -5056,7 +5005,7 @@
     </row>
     <row r="88" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B88" s="5" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -5100,7 +5049,7 @@
     </row>
     <row r="89" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B89" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -5144,7 +5093,7 @@
     </row>
     <row r="90" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B90" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -5188,7 +5137,7 @@
     </row>
     <row r="91" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -5232,7 +5181,7 @@
     </row>
     <row r="92" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B92" s="5" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -5276,7 +5225,7 @@
     </row>
     <row r="93" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B93" s="5" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -5320,7 +5269,7 @@
     </row>
     <row r="94" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -5364,7 +5313,7 @@
     </row>
     <row r="95" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B95" s="5" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -5408,7 +5357,7 @@
     </row>
     <row r="96" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -5452,7 +5401,7 @@
     </row>
     <row r="97" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B97" s="5" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -5496,7 +5445,7 @@
     </row>
     <row r="98" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B98" s="5" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -5540,7 +5489,7 @@
     </row>
     <row r="99" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -5595,8 +5544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5607,10 +5556,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="C1" s="5">
         <v>1.004</v>
@@ -5660,10 +5609,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C2" s="5">
         <v>1.004</v>
@@ -5713,10 +5662,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="C3" s="5">
         <v>1.0009999999999999</v>
@@ -5766,10 +5715,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C4" s="5">
         <v>1.0009999999999999</v>
@@ -5819,10 +5768,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C5" s="5">
         <v>1.002</v>
@@ -5872,10 +5821,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="C6" s="5">
         <v>1.002</v>
@@ -5925,10 +5874,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="C7" s="5">
         <v>1.0029999999999999</v>
@@ -5978,10 +5927,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C8" s="5">
         <v>1.0009999999999999</v>
@@ -6031,10 +5980,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C9" s="5">
         <v>1.0049999999999999</v>
@@ -6084,7 +6033,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5">
@@ -6135,10 +6084,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="C11" s="5">
         <v>1.0009999999999999</v>
@@ -6188,10 +6137,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C12" s="5">
         <v>1.0009999999999999</v>
@@ -6241,10 +6190,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C13" s="5">
         <v>1.0009999999999999</v>
@@ -6294,10 +6243,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C14" s="5">
         <v>1.0009999999999999</v>
@@ -6347,10 +6296,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C15" s="5">
         <v>1.0009999999999999</v>
@@ -6400,10 +6349,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C16" s="5">
         <v>1.002</v>
@@ -6453,10 +6402,10 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C17" s="5">
         <v>1.004</v>
@@ -6506,7 +6455,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B18" s="5">
         <v>2515</v>
@@ -6559,10 +6508,10 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="C19" s="5">
         <v>1.0049999999999999</v>
@@ -6612,7 +6561,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5">
         <v>2577</v>
@@ -6665,10 +6614,10 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="C21" s="5">
         <v>1.0009999999999999</v>
@@ -6718,10 +6667,10 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C22" s="5">
         <v>1.0049999999999999</v>
@@ -6771,10 +6720,10 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="C23" s="5">
         <v>1.0049999999999999</v>
@@ -6824,10 +6773,10 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="C24" s="5">
         <v>1.006</v>
@@ -6877,10 +6826,10 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C25" s="5">
         <v>1.0049999999999999</v>
@@ -6930,10 +6879,10 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C26" s="5">
         <v>1.0049999999999999</v>
@@ -6983,10 +6932,10 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C27" s="5">
         <v>1.006</v>
@@ -7036,10 +6985,10 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="C28" s="5">
         <v>1.0029999999999999</v>
@@ -7089,10 +7038,10 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C29" s="5">
         <v>1.004</v>
@@ -7142,10 +7091,10 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C30" s="5">
         <v>1.004</v>
@@ -7195,7 +7144,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B31" s="5">
         <v>23333</v>
@@ -7248,10 +7197,10 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="C32" s="5">
         <v>1.004</v>
@@ -7301,10 +7250,10 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C33" s="5">
         <v>1.006</v>
@@ -7354,10 +7303,10 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="C34" s="5">
         <v>1.006</v>
@@ -7407,10 +7356,10 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C35" s="5">
         <v>1.002</v>
@@ -7460,10 +7409,10 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C36" s="5">
         <v>1.0029999999999999</v>
@@ -7513,10 +7462,10 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="C37" s="5">
         <v>1.0029999999999999</v>
@@ -7566,10 +7515,10 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="C38" s="5">
         <v>1.004</v>
@@ -7619,10 +7568,10 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="C39" s="5">
         <v>1.006</v>
@@ -7672,10 +7621,10 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="C40" s="5">
         <v>1.0049999999999999</v>
@@ -7725,10 +7674,10 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C41" s="5">
         <v>1.0049999999999999</v>
@@ -7778,10 +7727,10 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="C42" s="5">
         <v>1.004</v>
@@ -7831,10 +7780,10 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="C43" s="5">
         <v>1.004</v>
@@ -7884,10 +7833,10 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C44" s="5">
         <v>1.0029999999999999</v>
@@ -7937,10 +7886,10 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C45" s="5">
         <v>1.004</v>
@@ -7990,10 +7939,10 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C46" s="5">
         <v>1.0009999999999999</v>
@@ -8043,10 +7992,10 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C47" s="5">
         <v>1.0009999999999999</v>
@@ -8096,10 +8045,10 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C48" s="5">
         <v>1.0009999999999999</v>
@@ -8149,10 +8098,10 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C49" s="5">
         <v>1.0009999999999999</v>
@@ -8202,10 +8151,10 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C50" s="5">
         <v>1.0009999999999999</v>
@@ -8255,10 +8204,10 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C51" s="5">
         <v>1.0009999999999999</v>
@@ -8308,10 +8257,10 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C52" s="5">
         <v>1.002</v>
@@ -8361,10 +8310,10 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C53" s="5">
         <v>1.004</v>
@@ -8414,10 +8363,10 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="C55">
         <v>0.95299999999999996</v>
@@ -8473,10 +8422,10 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="E56">
         <v>0.92100000000000004</v>
@@ -8526,10 +8475,10 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="C57">
         <v>0.95799999999999996</v>
@@ -8585,7 +8534,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="C58">
         <v>0.97099999999999997</v>
@@ -8641,7 +8590,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C59">
         <v>0.95199999999999996</v>
@@ -8697,10 +8646,10 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="E60">
         <v>0.92500000000000004</v>
@@ -8750,10 +8699,10 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B61" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C61">
         <v>0.96499999999999997</v>
@@ -8809,10 +8758,10 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="I62">
         <v>0.91600000000000004</v>
@@ -8850,10 +8799,10 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="I63">
         <v>0.91400000000000003</v>
@@ -8891,10 +8840,10 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="I64">
         <v>0.88200000000000001</v>
@@ -8932,10 +8881,10 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="I65">
         <v>0.92100000000000004</v>
@@ -8973,10 +8922,10 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="I66">
         <v>0.91800000000000004</v>
@@ -9014,10 +8963,10 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="I67">
         <v>0.89900000000000002</v>
@@ -9055,10 +9004,10 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="I68">
         <v>0.91100000000000003</v>
@@ -9096,10 +9045,10 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="I69">
         <v>0.91600000000000004</v>
@@ -9137,10 +9086,10 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="I70">
         <v>0.92</v>
@@ -9178,10 +9127,10 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="I71">
         <v>0.91200000000000003</v>
@@ -9219,10 +9168,10 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="I72">
         <v>0.91200000000000003</v>
@@ -9260,10 +9209,10 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="I73">
         <v>0.91</v>
@@ -9301,10 +9250,10 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="I74">
         <v>0.90600000000000003</v>
@@ -9342,10 +9291,10 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="I75">
         <v>0.89900000000000002</v>
